--- a/templates/Copy of Form chấm công.xlsx
+++ b/templates/Copy of Form chấm công.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Zalo Received Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770F64DB-75FD-47AE-9F85-81DB7E76858E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2367B292-CE24-49B7-B91A-4D7B92B20331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,12 +119,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -141,6 +137,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -435,67 +441,274 @@
     <col min="5" max="13" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="2" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="F14" s="2"/>
-      <c r="P14" s="3"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/Copy of Form chấm công.xlsx
+++ b/templates/Copy of Form chấm công.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2367B292-CE24-49B7-B91A-4D7B92B20331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEBB648-6D49-49BD-BFCC-2CAE47501261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -137,16 +137,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,7 +429,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -506,13 +505,6 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -521,13 +513,6 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -536,13 +521,6 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
@@ -551,13 +529,6 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -566,13 +537,6 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -581,13 +545,6 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
@@ -596,13 +553,6 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -611,13 +561,6 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
@@ -626,13 +569,6 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -641,13 +577,6 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -656,13 +585,6 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -672,13 +594,6 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -687,28 +602,14 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/Copy of Form chấm công.xlsx
+++ b/templates/Copy of Form chấm công.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92A20E8-9AF3-42F0-A824-F47F61EB43B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34277AA-80EA-48F5-963D-DF074B417BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Mã NV</t>
   </si>
@@ -36,43 +36,55 @@
     <t xml:space="preserve">Ngày </t>
   </si>
   <si>
-    <t>Check 1</t>
-  </si>
-  <si>
-    <t>Check 2</t>
-  </si>
-  <si>
-    <t>Check 3</t>
-  </si>
-  <si>
-    <t>Check 4</t>
-  </si>
-  <si>
-    <t>Check 5</t>
-  </si>
-  <si>
-    <t>Check 6</t>
-  </si>
-  <si>
-    <t>Check 7</t>
-  </si>
-  <si>
-    <t>Check 8</t>
-  </si>
-  <si>
-    <t>Check 9</t>
-  </si>
-  <si>
-    <t>Check 10</t>
+    <t>Check In 1</t>
+  </si>
+  <si>
+    <t>Check In 2</t>
+  </si>
+  <si>
+    <t>Check In 3</t>
+  </si>
+  <si>
+    <t>Check In 4</t>
+  </si>
+  <si>
+    <t>Check In 5</t>
+  </si>
+  <si>
+    <t>Check In 6</t>
+  </si>
+  <si>
+    <t>Check In 7</t>
+  </si>
+  <si>
+    <t>Check In 8</t>
+  </si>
+  <si>
+    <t>Check In 9</t>
+  </si>
+  <si>
+    <t>Check Out</t>
+  </si>
+  <si>
+    <t>Tổng số giờ làm trong ngày</t>
+  </si>
+  <si>
+    <t>Tổng số giờ làm trong tháng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
@@ -119,23 +131,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -146,6 +145,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +438,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -437,178 +446,188 @@
     <col min="2" max="2" width="21.88671875" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="13" width="46.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/Copy of Form chấm công.xlsx
+++ b/templates/Copy of Form chấm công.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34277AA-80EA-48F5-963D-DF074B417BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -75,22 +77,179 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,8 +262,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -114,59 +459,345 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -215,7 +846,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -250,7 +881,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -424,212 +1055,208 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="13" width="46.33203125" customWidth="1"/>
-    <col min="14" max="14" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="16.3333333333333" customWidth="1"/>
+    <col min="4" max="13" width="46.3333333333333" customWidth="1"/>
+    <col min="14" max="14" width="22.2222222222222" customWidth="1"/>
+    <col min="15" max="15" width="22.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="20.25" customHeight="1" spans="1:15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+    <row r="2" ht="18.75" spans="1:15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/templates/Copy of Form chấm công.xlsx
+++ b/templates/Copy of Form chấm công.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7CF1D0-96BB-401C-B86A-FA290BBC01B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3B727C-A1C2-42DB-A929-D29038F0F369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Mã NV</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Tổng số giờ làm trong tháng</t>
-  </si>
-  <si>
-    <t>Ghi chú</t>
   </si>
 </sst>
 </file>
@@ -441,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -452,12 +449,11 @@
     <col min="2" max="2" width="21.88671875" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="13" width="46.33203125" customWidth="1"/>
-    <col min="14" max="14" width="22.21875" customWidth="1"/>
-    <col min="15" max="15" width="22.77734375" customWidth="1"/>
-    <col min="16" max="16" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.77734375" customWidth="1"/>
+    <col min="15" max="15" width="24.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.25" customHeight="1">
+    <row r="1" spans="1:15" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,16 +494,13 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18.75">
+    <row r="2" spans="1:15" ht="18.75">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -521,18 +514,17 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:15">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
@@ -540,7 +532,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
@@ -548,7 +540,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:15">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -556,7 +548,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -564,7 +556,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -572,7 +564,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -580,7 +572,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -588,7 +580,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -596,7 +588,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -604,16 +596,16 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -621,7 +613,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -629,7 +621,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>

--- a/templates/Copy of Form chấm công.xlsx
+++ b/templates/Copy of Form chấm công.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3B727C-A1C2-42DB-A929-D29038F0F369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDFB3DC-CD2B-42A9-AC70-F224A29499A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,9 +147,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -162,6 +159,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,7 +449,7 @@
     <col min="2" max="2" width="21.88671875" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="13" width="46.33203125" customWidth="1"/>
-    <col min="14" max="14" width="22.77734375" customWidth="1"/>
+    <col min="14" max="14" width="24" customWidth="1"/>
     <col min="15" max="15" width="24.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -503,7 +503,7 @@
     <row r="2" spans="1:15" ht="18.75">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -514,120 +514,120 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="O13" s="8"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/Copy of Form chấm công.xlsx
+++ b/templates/Copy of Form chấm công.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDFB3DC-CD2B-42A9-AC70-F224A29499A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40180F1D-5430-45A6-9555-F4B9B38F011F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -156,12 +156,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,7 +502,7 @@
     <row r="2" spans="1:15" ht="18.75">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="8"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -514,8 +513,8 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15">
       <c r="B3" s="3"/>
@@ -603,7 +602,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="O13" s="7"/>
+      <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3"/>

--- a/templates/Copy of Form chấm công.xlsx
+++ b/templates/Copy of Form chấm công.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40180F1D-5430-45A6-9555-F4B9B38F011F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D003927-865B-43BE-91F4-C357EE665272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,28 +139,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -452,181 +455,166 @@
     <col min="15" max="15" width="24.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="18.75">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.75">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+    <row r="2" spans="1:15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="O13" s="6"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
